--- a/avi_departure_flights_summary_statistics.xlsx
+++ b/avi_departure_flights_summary_statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{71D75F83-7C43-4754-BD0D-A2AE0BDA92A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385FD50D-E162-4706-8BAC-6FFE5A1F0FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FE2DC3D8-BE1B-4888-BD12-26BAC66956D7}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">avi_departure_flights_summary_s!$A$1:$D$812</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -889,7 +889,7 @@
   <dimension ref="A1:D812"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/avi_departure_flights_summary_statistics.xlsx
+++ b/avi_departure_flights_summary_statistics.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385FD50D-E162-4706-8BAC-6FFE5A1F0FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3252773D-523B-4A05-BAE8-AD124DC44059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FE2DC3D8-BE1B-4888-BD12-26BAC66956D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="avi_departure_flights_summary_s" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="avi_departure_flights_summary_s" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">avi_departure_flights_summary_s!$A$1:$D$812</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">avi_departure_flights_summary_s!$A$1:$D$812</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="26">
   <si>
     <t>departure_date</t>
   </si>
@@ -44,6 +48,63 @@
   </si>
   <si>
     <t>Night hour departures</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of total_flights</t>
+  </si>
+  <si>
+    <t>Group1</t>
   </si>
 </sst>
 </file>
@@ -527,9 +588,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -586,6 +655,5844 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Editor" refreshedDate="45492.887413078701" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="811" xr:uid="{9996ED4F-CCB7-468E-B95F-E0852B4E6FE6}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D812" sheet="avi_departure_flights_summary_s"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="departure_date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-05-01T00:00:00" maxDate="2024-05-01T00:00:00" count="364">
+        <d v="2023-05-01T00:00:00"/>
+        <d v="2023-05-02T00:00:00"/>
+        <d v="2023-05-03T00:00:00"/>
+        <d v="2023-05-04T00:00:00"/>
+        <d v="2023-05-05T00:00:00"/>
+        <d v="2023-05-06T00:00:00"/>
+        <d v="2023-05-07T00:00:00"/>
+        <d v="2023-05-08T00:00:00"/>
+        <d v="2023-05-09T00:00:00"/>
+        <d v="2023-05-10T00:00:00"/>
+        <d v="2023-05-11T00:00:00"/>
+        <d v="2023-05-12T00:00:00"/>
+        <d v="2023-05-13T00:00:00"/>
+        <d v="2023-05-14T00:00:00"/>
+        <d v="2023-05-15T00:00:00"/>
+        <d v="2023-05-16T00:00:00"/>
+        <d v="2023-05-17T00:00:00"/>
+        <d v="2023-05-18T00:00:00"/>
+        <d v="2023-05-19T00:00:00"/>
+        <d v="2023-05-20T00:00:00"/>
+        <d v="2023-05-21T00:00:00"/>
+        <d v="2023-05-22T00:00:00"/>
+        <d v="2023-05-23T00:00:00"/>
+        <d v="2023-05-24T00:00:00"/>
+        <d v="2023-05-25T00:00:00"/>
+        <d v="2023-05-26T00:00:00"/>
+        <d v="2023-05-27T00:00:00"/>
+        <d v="2023-05-28T00:00:00"/>
+        <d v="2023-05-29T00:00:00"/>
+        <d v="2023-05-30T00:00:00"/>
+        <d v="2023-05-31T00:00:00"/>
+        <d v="2023-06-01T00:00:00"/>
+        <d v="2023-06-02T00:00:00"/>
+        <d v="2023-06-03T00:00:00"/>
+        <d v="2023-06-04T00:00:00"/>
+        <d v="2023-06-05T00:00:00"/>
+        <d v="2023-06-06T00:00:00"/>
+        <d v="2023-06-07T00:00:00"/>
+        <d v="2023-06-08T00:00:00"/>
+        <d v="2023-06-09T00:00:00"/>
+        <d v="2023-06-10T00:00:00"/>
+        <d v="2023-06-11T00:00:00"/>
+        <d v="2023-06-12T00:00:00"/>
+        <d v="2023-06-13T00:00:00"/>
+        <d v="2023-06-14T00:00:00"/>
+        <d v="2023-06-15T00:00:00"/>
+        <d v="2023-06-16T00:00:00"/>
+        <d v="2023-06-17T00:00:00"/>
+        <d v="2023-06-18T00:00:00"/>
+        <d v="2023-06-19T00:00:00"/>
+        <d v="2023-06-20T00:00:00"/>
+        <d v="2023-06-21T00:00:00"/>
+        <d v="2023-06-22T00:00:00"/>
+        <d v="2023-06-23T00:00:00"/>
+        <d v="2023-06-24T00:00:00"/>
+        <d v="2023-06-25T00:00:00"/>
+        <d v="2023-06-26T00:00:00"/>
+        <d v="2023-06-27T00:00:00"/>
+        <d v="2023-06-28T00:00:00"/>
+        <d v="2023-06-29T00:00:00"/>
+        <d v="2023-06-30T00:00:00"/>
+        <d v="2023-07-01T00:00:00"/>
+        <d v="2023-07-02T00:00:00"/>
+        <d v="2023-07-03T00:00:00"/>
+        <d v="2023-07-04T00:00:00"/>
+        <d v="2023-07-05T00:00:00"/>
+        <d v="2023-07-06T00:00:00"/>
+        <d v="2023-07-07T00:00:00"/>
+        <d v="2023-07-08T00:00:00"/>
+        <d v="2023-07-09T00:00:00"/>
+        <d v="2023-07-10T00:00:00"/>
+        <d v="2023-07-11T00:00:00"/>
+        <d v="2023-07-12T00:00:00"/>
+        <d v="2023-07-13T00:00:00"/>
+        <d v="2023-07-14T00:00:00"/>
+        <d v="2023-07-15T00:00:00"/>
+        <d v="2023-07-16T00:00:00"/>
+        <d v="2023-07-17T00:00:00"/>
+        <d v="2023-07-18T00:00:00"/>
+        <d v="2023-07-19T00:00:00"/>
+        <d v="2023-07-20T00:00:00"/>
+        <d v="2023-07-21T00:00:00"/>
+        <d v="2023-07-22T00:00:00"/>
+        <d v="2023-07-23T00:00:00"/>
+        <d v="2023-07-24T00:00:00"/>
+        <d v="2023-07-25T00:00:00"/>
+        <d v="2023-07-26T00:00:00"/>
+        <d v="2023-07-27T00:00:00"/>
+        <d v="2023-07-28T00:00:00"/>
+        <d v="2023-07-29T00:00:00"/>
+        <d v="2023-07-30T00:00:00"/>
+        <d v="2023-07-31T00:00:00"/>
+        <d v="2023-08-01T00:00:00"/>
+        <d v="2023-08-02T00:00:00"/>
+        <d v="2023-08-03T00:00:00"/>
+        <d v="2023-08-04T00:00:00"/>
+        <d v="2023-08-05T00:00:00"/>
+        <d v="2023-08-06T00:00:00"/>
+        <d v="2023-08-07T00:00:00"/>
+        <d v="2023-08-08T00:00:00"/>
+        <d v="2023-08-09T00:00:00"/>
+        <d v="2023-08-10T00:00:00"/>
+        <d v="2023-08-11T00:00:00"/>
+        <d v="2023-08-12T00:00:00"/>
+        <d v="2023-08-13T00:00:00"/>
+        <d v="2023-08-14T00:00:00"/>
+        <d v="2023-08-15T00:00:00"/>
+        <d v="2023-08-16T00:00:00"/>
+        <d v="2023-08-17T00:00:00"/>
+        <d v="2023-08-18T00:00:00"/>
+        <d v="2023-08-19T00:00:00"/>
+        <d v="2023-08-20T00:00:00"/>
+        <d v="2023-08-21T00:00:00"/>
+        <d v="2023-08-22T00:00:00"/>
+        <d v="2023-08-23T00:00:00"/>
+        <d v="2023-08-24T00:00:00"/>
+        <d v="2023-08-25T00:00:00"/>
+        <d v="2023-08-26T00:00:00"/>
+        <d v="2023-08-27T00:00:00"/>
+        <d v="2023-08-28T00:00:00"/>
+        <d v="2023-08-29T00:00:00"/>
+        <d v="2023-08-30T00:00:00"/>
+        <d v="2023-08-31T00:00:00"/>
+        <d v="2023-09-01T00:00:00"/>
+        <d v="2023-09-02T00:00:00"/>
+        <d v="2023-09-03T00:00:00"/>
+        <d v="2023-09-04T00:00:00"/>
+        <d v="2023-09-05T00:00:00"/>
+        <d v="2023-09-06T00:00:00"/>
+        <d v="2023-09-07T00:00:00"/>
+        <d v="2023-09-08T00:00:00"/>
+        <d v="2023-09-09T00:00:00"/>
+        <d v="2023-09-10T00:00:00"/>
+        <d v="2023-09-11T00:00:00"/>
+        <d v="2023-09-12T00:00:00"/>
+        <d v="2023-09-13T00:00:00"/>
+        <d v="2023-09-14T00:00:00"/>
+        <d v="2023-09-15T00:00:00"/>
+        <d v="2023-09-16T00:00:00"/>
+        <d v="2023-09-17T00:00:00"/>
+        <d v="2023-09-18T00:00:00"/>
+        <d v="2023-09-19T00:00:00"/>
+        <d v="2023-09-20T00:00:00"/>
+        <d v="2023-09-21T00:00:00"/>
+        <d v="2023-09-22T00:00:00"/>
+        <d v="2023-09-23T00:00:00"/>
+        <d v="2023-09-24T00:00:00"/>
+        <d v="2023-09-25T00:00:00"/>
+        <d v="2023-09-26T00:00:00"/>
+        <d v="2023-09-27T00:00:00"/>
+        <d v="2023-09-28T00:00:00"/>
+        <d v="2023-09-29T00:00:00"/>
+        <d v="2023-09-30T00:00:00"/>
+        <d v="2023-10-01T00:00:00"/>
+        <d v="2023-10-02T00:00:00"/>
+        <d v="2023-10-03T00:00:00"/>
+        <d v="2023-10-04T00:00:00"/>
+        <d v="2023-10-05T00:00:00"/>
+        <d v="2023-10-06T00:00:00"/>
+        <d v="2023-10-07T00:00:00"/>
+        <d v="2023-10-08T00:00:00"/>
+        <d v="2023-10-09T00:00:00"/>
+        <d v="2023-10-10T00:00:00"/>
+        <d v="2023-10-11T00:00:00"/>
+        <d v="2023-10-12T00:00:00"/>
+        <d v="2023-10-13T00:00:00"/>
+        <d v="2023-10-14T00:00:00"/>
+        <d v="2023-10-15T00:00:00"/>
+        <d v="2023-10-16T00:00:00"/>
+        <d v="2023-10-17T00:00:00"/>
+        <d v="2023-10-18T00:00:00"/>
+        <d v="2023-10-19T00:00:00"/>
+        <d v="2023-10-20T00:00:00"/>
+        <d v="2023-10-21T00:00:00"/>
+        <d v="2023-10-23T00:00:00"/>
+        <d v="2023-10-24T00:00:00"/>
+        <d v="2023-10-25T00:00:00"/>
+        <d v="2023-10-26T00:00:00"/>
+        <d v="2023-10-27T00:00:00"/>
+        <d v="2023-10-28T00:00:00"/>
+        <d v="2023-10-29T00:00:00"/>
+        <d v="2023-10-30T00:00:00"/>
+        <d v="2023-10-31T00:00:00"/>
+        <d v="2023-11-01T00:00:00"/>
+        <d v="2023-11-02T00:00:00"/>
+        <d v="2023-11-03T00:00:00"/>
+        <d v="2023-11-04T00:00:00"/>
+        <d v="2023-11-05T00:00:00"/>
+        <d v="2023-11-06T00:00:00"/>
+        <d v="2023-11-07T00:00:00"/>
+        <d v="2023-11-08T00:00:00"/>
+        <d v="2023-11-09T00:00:00"/>
+        <d v="2023-11-10T00:00:00"/>
+        <d v="2023-11-11T00:00:00"/>
+        <d v="2023-11-12T00:00:00"/>
+        <d v="2023-11-13T00:00:00"/>
+        <d v="2023-11-14T00:00:00"/>
+        <d v="2023-11-15T00:00:00"/>
+        <d v="2023-11-16T00:00:00"/>
+        <d v="2023-11-17T00:00:00"/>
+        <d v="2023-11-18T00:00:00"/>
+        <d v="2023-11-19T00:00:00"/>
+        <d v="2023-11-20T00:00:00"/>
+        <d v="2023-11-21T00:00:00"/>
+        <d v="2023-11-22T00:00:00"/>
+        <d v="2023-11-23T00:00:00"/>
+        <d v="2023-11-24T00:00:00"/>
+        <d v="2023-11-25T00:00:00"/>
+        <d v="2023-11-26T00:00:00"/>
+        <d v="2023-11-27T00:00:00"/>
+        <d v="2023-11-28T00:00:00"/>
+        <d v="2023-11-29T00:00:00"/>
+        <d v="2023-11-30T00:00:00"/>
+        <d v="2023-12-01T00:00:00"/>
+        <d v="2023-12-02T00:00:00"/>
+        <d v="2023-12-03T00:00:00"/>
+        <d v="2023-12-04T00:00:00"/>
+        <d v="2023-12-05T00:00:00"/>
+        <d v="2023-12-06T00:00:00"/>
+        <d v="2023-12-07T00:00:00"/>
+        <d v="2023-12-08T00:00:00"/>
+        <d v="2023-12-09T00:00:00"/>
+        <d v="2023-12-10T00:00:00"/>
+        <d v="2023-12-11T00:00:00"/>
+        <d v="2023-12-12T00:00:00"/>
+        <d v="2023-12-13T00:00:00"/>
+        <d v="2023-12-14T00:00:00"/>
+        <d v="2023-12-15T00:00:00"/>
+        <d v="2023-12-16T00:00:00"/>
+        <d v="2023-12-17T00:00:00"/>
+        <d v="2023-12-18T00:00:00"/>
+        <d v="2023-12-19T00:00:00"/>
+        <d v="2023-12-20T00:00:00"/>
+        <d v="2023-12-21T00:00:00"/>
+        <d v="2023-12-22T00:00:00"/>
+        <d v="2023-12-23T00:00:00"/>
+        <d v="2023-12-24T00:00:00"/>
+        <d v="2023-12-25T00:00:00"/>
+        <d v="2023-12-26T00:00:00"/>
+        <d v="2023-12-27T00:00:00"/>
+        <d v="2023-12-28T00:00:00"/>
+        <d v="2023-12-29T00:00:00"/>
+        <d v="2023-12-30T00:00:00"/>
+        <d v="2023-12-31T00:00:00"/>
+        <d v="2024-01-01T00:00:00"/>
+        <d v="2024-01-02T00:00:00"/>
+        <d v="2024-01-03T00:00:00"/>
+        <d v="2024-01-04T00:00:00"/>
+        <d v="2024-01-05T00:00:00"/>
+        <d v="2024-01-06T00:00:00"/>
+        <d v="2024-01-07T00:00:00"/>
+        <d v="2024-01-08T00:00:00"/>
+        <d v="2024-01-09T00:00:00"/>
+        <d v="2024-01-10T00:00:00"/>
+        <d v="2024-01-11T00:00:00"/>
+        <d v="2024-01-12T00:00:00"/>
+        <d v="2024-01-13T00:00:00"/>
+        <d v="2024-01-14T00:00:00"/>
+        <d v="2024-01-15T00:00:00"/>
+        <d v="2024-01-16T00:00:00"/>
+        <d v="2024-01-17T00:00:00"/>
+        <d v="2024-01-18T00:00:00"/>
+        <d v="2024-01-19T00:00:00"/>
+        <d v="2024-01-20T00:00:00"/>
+        <d v="2024-01-21T00:00:00"/>
+        <d v="2024-01-22T00:00:00"/>
+        <d v="2024-01-23T00:00:00"/>
+        <d v="2024-01-24T00:00:00"/>
+        <d v="2024-01-25T00:00:00"/>
+        <d v="2024-01-26T00:00:00"/>
+        <d v="2024-01-27T00:00:00"/>
+        <d v="2024-01-28T00:00:00"/>
+        <d v="2024-01-29T00:00:00"/>
+        <d v="2024-01-30T00:00:00"/>
+        <d v="2024-01-31T00:00:00"/>
+        <d v="2024-02-01T00:00:00"/>
+        <d v="2024-02-02T00:00:00"/>
+        <d v="2024-02-03T00:00:00"/>
+        <d v="2024-02-04T00:00:00"/>
+        <d v="2024-02-05T00:00:00"/>
+        <d v="2024-02-06T00:00:00"/>
+        <d v="2024-02-07T00:00:00"/>
+        <d v="2024-02-08T00:00:00"/>
+        <d v="2024-02-09T00:00:00"/>
+        <d v="2024-02-10T00:00:00"/>
+        <d v="2024-02-11T00:00:00"/>
+        <d v="2024-02-12T00:00:00"/>
+        <d v="2024-02-14T00:00:00"/>
+        <d v="2024-02-15T00:00:00"/>
+        <d v="2024-02-16T00:00:00"/>
+        <d v="2024-02-17T00:00:00"/>
+        <d v="2024-02-18T00:00:00"/>
+        <d v="2024-02-19T00:00:00"/>
+        <d v="2024-02-20T00:00:00"/>
+        <d v="2024-02-21T00:00:00"/>
+        <d v="2024-02-22T00:00:00"/>
+        <d v="2024-02-23T00:00:00"/>
+        <d v="2024-02-24T00:00:00"/>
+        <d v="2024-02-25T00:00:00"/>
+        <d v="2024-02-26T00:00:00"/>
+        <d v="2024-02-27T00:00:00"/>
+        <d v="2024-02-28T00:00:00"/>
+        <d v="2024-02-29T00:00:00"/>
+        <d v="2024-03-01T00:00:00"/>
+        <d v="2024-03-02T00:00:00"/>
+        <d v="2024-03-03T00:00:00"/>
+        <d v="2024-03-04T00:00:00"/>
+        <d v="2024-03-05T00:00:00"/>
+        <d v="2024-03-06T00:00:00"/>
+        <d v="2024-03-07T00:00:00"/>
+        <d v="2024-03-08T00:00:00"/>
+        <d v="2024-03-09T00:00:00"/>
+        <d v="2024-03-10T00:00:00"/>
+        <d v="2024-03-11T00:00:00"/>
+        <d v="2024-03-12T00:00:00"/>
+        <d v="2024-03-13T00:00:00"/>
+        <d v="2024-03-14T00:00:00"/>
+        <d v="2024-03-15T00:00:00"/>
+        <d v="2024-03-16T00:00:00"/>
+        <d v="2024-03-17T00:00:00"/>
+        <d v="2024-03-18T00:00:00"/>
+        <d v="2024-03-19T00:00:00"/>
+        <d v="2024-03-20T00:00:00"/>
+        <d v="2024-03-21T00:00:00"/>
+        <d v="2024-03-22T00:00:00"/>
+        <d v="2024-03-23T00:00:00"/>
+        <d v="2024-03-24T00:00:00"/>
+        <d v="2024-03-25T00:00:00"/>
+        <d v="2024-03-26T00:00:00"/>
+        <d v="2024-03-27T00:00:00"/>
+        <d v="2024-03-28T00:00:00"/>
+        <d v="2024-03-29T00:00:00"/>
+        <d v="2024-03-30T00:00:00"/>
+        <d v="2024-03-31T00:00:00"/>
+        <d v="2024-04-01T00:00:00"/>
+        <d v="2024-04-02T00:00:00"/>
+        <d v="2024-04-03T00:00:00"/>
+        <d v="2024-04-04T00:00:00"/>
+        <d v="2024-04-05T00:00:00"/>
+        <d v="2024-04-06T00:00:00"/>
+        <d v="2024-04-07T00:00:00"/>
+        <d v="2024-04-08T00:00:00"/>
+        <d v="2024-04-09T00:00:00"/>
+        <d v="2024-04-10T00:00:00"/>
+        <d v="2024-04-11T00:00:00"/>
+        <d v="2024-04-12T00:00:00"/>
+        <d v="2024-04-13T00:00:00"/>
+        <d v="2024-04-14T00:00:00"/>
+        <d v="2024-04-15T00:00:00"/>
+        <d v="2024-04-16T00:00:00"/>
+        <d v="2024-04-17T00:00:00"/>
+        <d v="2024-04-18T00:00:00"/>
+        <d v="2024-04-19T00:00:00"/>
+        <d v="2024-04-20T00:00:00"/>
+        <d v="2024-04-21T00:00:00"/>
+        <d v="2024-04-22T00:00:00"/>
+        <d v="2024-04-23T00:00:00"/>
+        <d v="2024-04-24T00:00:00"/>
+        <d v="2024-04-25T00:00:00"/>
+        <d v="2024-04-26T00:00:00"/>
+        <d v="2024-04-27T00:00:00"/>
+        <d v="2024-04-28T00:00:00"/>
+        <d v="2024-04-29T00:00:00"/>
+        <d v="2024-04-30T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="6"/>
+    </cacheField>
+    <cacheField name="flight_type" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Regular departures"/>
+        <s v="Shoulder hour flights"/>
+        <s v="Night hour departures"/>
+      </sharedItems>
+      <fieldGroup par="7"/>
+    </cacheField>
+    <cacheField name="total_flights" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="115"/>
+    </cacheField>
+    <cacheField name="avg_departure_delay" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="39"/>
+    </cacheField>
+    <cacheField name="Months (departure_date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2023-05-01T00:00:00" endDate="2024-05-01T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;01/05/2023"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;01/05/2024"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Quarters (departure_date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="quarters" startDate="2023-05-01T00:00:00" endDate="2024-05-01T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;01/05/2023"/>
+          <s v="Qtr1"/>
+          <s v="Qtr2"/>
+          <s v="Qtr3"/>
+          <s v="Qtr4"/>
+          <s v="&gt;01/05/2024"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years (departure_date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="years" startDate="2023-05-01T00:00:00" endDate="2024-05-01T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;01/05/2023"/>
+          <s v="2023"/>
+          <s v="2024"/>
+          <s v="&gt;01/05/2024"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="flight_type2" numFmtId="0" databaseField="0">
+      <fieldGroup base="1">
+        <discretePr count="3">
+          <x v="0"/>
+          <x v="1"/>
+          <x v="1"/>
+        </discretePr>
+        <groupItems count="2">
+          <s v="Regular departures"/>
+          <s v="Group1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="811">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="15.1818181818181"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="18.9444444444444"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="16.847058823529402"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="17.904761904761902"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="102"/>
+    <n v="17.401960784313701"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="9.7619047619047592"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="104"/>
+    <n v="17.490384615384599"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="18.357142857142801"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="97"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="12.578947368421"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="63"/>
+    <n v="19.238095238095202"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="16.772727272727199"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="74"/>
+    <n v="16.162162162162101"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="18.4166666666666"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="73"/>
+    <n v="20.684931506849299"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="20.533333333333299"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="16.571428571428498"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="86"/>
+    <n v="16.0697674418604"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="11.772727272727201"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="103"/>
+    <n v="15.7961165048543"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="14.3478260869565"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="22.9240506329113"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="16.1111111111111"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="68"/>
+    <n v="22.4411764705882"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="14.4285714285714"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="21.797101449275299"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="16.6086956521739"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="16.5625"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="15.5555555555555"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="13.4166666666666"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="16.8705882352941"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="16.684210526315699"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="18.776470588235199"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="14.625"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="96"/>
+    <n v="17.0833333333333"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="10.050000000000001"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="74"/>
+    <n v="20.743243243243199"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="17.3333333333333"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="21.451219512195099"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="14.772727272727201"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="15.641304347826001"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="15.65"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="88"/>
+    <n v="17.238636363636299"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="20.8"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="19.264367816091902"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="12.45"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="21.175000000000001"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="20.5217391304347"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="77"/>
+    <n v="24.519480519480499"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="22.380952380952301"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="23.848484848484802"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="20.652173913043399"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="21.898734177215101"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="16.764705882352899"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="73"/>
+    <n v="19.150684931506799"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="9.4285714285714199"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="20.573333333333299"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="22.5217391304347"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="24.115942028985501"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="22.4166666666666"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="81"/>
+    <n v="22.456790123456699"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="24.1666666666666"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="27.797619047619001"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="15.6315789473684"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="58"/>
+    <n v="24.689655172413701"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="16.7083333333333"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="19.786666666666601"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="16.523809523809501"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="89"/>
+    <n v="22.8426966292134"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="14.076923076923"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="0"/>
+    <n v="62"/>
+    <n v="25.903225806451601"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="16.3333333333333"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="24.25"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="10.0416666666666"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="18.8705882352941"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="17.590909090909001"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="23.802816901408399"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="14.3157894736842"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="81"/>
+    <n v="23.839506172839499"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="18.227272727272702"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <n v="78"/>
+    <n v="23.4743589743589"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <n v="56"/>
+    <n v="20.875"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="18.130434782608599"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="23.5625"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="22.3333333333333"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="19.523809523809501"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="20.356321839080401"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="12.130434782608599"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="97"/>
+    <n v="23.762886597938099"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="13.047619047618999"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="63"/>
+    <n v="19.825396825396801"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="24.434782608695599"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="23.537313432835798"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="18.6666666666666"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="19.3333333333333"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="17.1428571428571"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="26.0757575757575"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="23.8095238095238"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="23.126315789473601"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="16.45"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="20.7777777777777"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="21.058823529411701"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="0"/>
+    <n v="96"/>
+    <n v="27.3854166666666"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="13.9565217391304"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="20.573333333333299"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="16.590909090909001"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="93"/>
+    <n v="17.752688172043001"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="1"/>
+    <n v="27"/>
+    <n v="18.7777777777777"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="89"/>
+    <n v="21.528089887640402"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="12.090909090908999"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <n v="91"/>
+    <n v="21.109890109890099"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="16.12"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="24.5402298850574"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="15.4"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="17.452631578947301"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="18.0833333333333"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="63"/>
+    <n v="22.079365079365001"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="12.1428571428571"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="0"/>
+    <n v="68"/>
+    <n v="25.970588235294102"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="12.3043478260869"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="18.028985507246301"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="9.7826086956521703"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="78"/>
+    <n v="20.8333333333333"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="12.545454545454501"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="20.919540229885001"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="19.181818181818102"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="21.3928571428571"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="0"/>
+    <n v="91"/>
+    <n v="21.1428571428571"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="12.1666666666666"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="26.722891566265002"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="14.318181818181801"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="0"/>
+    <n v="47"/>
+    <n v="25.8085106382978"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="22.2173913043478"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="63"/>
+    <n v="22.873015873015799"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="26.9130434782608"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="20.402439024390201"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="17.850000000000001"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="18.126760563380198"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="13.409090909090899"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="0"/>
+    <n v="64"/>
+    <n v="22.328125"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="16.318181818181799"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="0"/>
+    <n v="76"/>
+    <n v="21.578947368421002"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="19.956521739130402"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="0"/>
+    <n v="55"/>
+    <n v="25.4545454545454"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="8.1875"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="0"/>
+    <n v="62"/>
+    <n v="29.064516129032199"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="18.5"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="0"/>
+    <n v="81"/>
+    <n v="22.839506172839499"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="22.7222222222222"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="0"/>
+    <n v="86"/>
+    <n v="21.546511627906899"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="22.4545454545454"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="81"/>
+    <n v="22.4197530864197"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="22.375"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="19.4130434782608"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="14.4761904761904"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="0"/>
+    <n v="111"/>
+    <n v="19.3333333333333"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="19.173913043478201"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="0"/>
+    <n v="102"/>
+    <n v="21.362745098039198"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="15.190476190476099"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="0"/>
+    <n v="77"/>
+    <n v="22.831168831168799"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="13.4"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="22.760869565217298"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="21.285714285714199"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="0"/>
+    <n v="77"/>
+    <n v="23.090909090909001"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="22.772727272727199"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="19.458823529411699"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="21.487804878048699"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="13.578947368421"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="0"/>
+    <n v="106"/>
+    <n v="24.915094339622598"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="0"/>
+    <n v="73"/>
+    <n v="22.698630136986299"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="19.636363636363601"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="0"/>
+    <n v="63"/>
+    <n v="23.507936507936499"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="15.047619047618999"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="22.524390243902399"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="20.571428571428498"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="21.137499999999999"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="21.818181818181799"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="17.9578947368421"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="8.2727272727272698"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="20.463768115941999"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="19.181818181818102"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="21.260869565217298"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="26.826086956521699"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="0"/>
+    <n v="94"/>
+    <n v="27.3085106382978"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="14.5714285714285"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="0"/>
+    <n v="63"/>
+    <n v="23.190476190476101"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="8.25"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="19.898734177215101"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="14.7222222222222"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="22.2631578947368"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="16.5217391304347"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="19.0210526315789"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="15.6"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="0"/>
+    <n v="88"/>
+    <n v="19.647727272727199"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="12.8095238095238"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="19.782608695652101"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="14.28"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="23.678160919540201"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="13.318181818181801"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="0"/>
+    <n v="68"/>
+    <n v="22.455882352941099"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="15.1"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="21.188888888888801"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="14.695652173913"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="19.706521739130402"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="15.2173913043478"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="19.273684210526302"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="17.727272727272702"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="0"/>
+    <n v="77"/>
+    <n v="18.7662337662337"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="15.875"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="0"/>
+    <n v="81"/>
+    <n v="24.1358024691358"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="22.4545454545454"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="24.5416666666666"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="23.4761904761904"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="20.012048192771001"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="11.8666666666666"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="16.399999999999999"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="18.600000000000001"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="18.190476190476101"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="18.5"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="0"/>
+    <n v="93"/>
+    <n v="18.236559139784902"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="15.294117647058799"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="18.968421052631498"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="16.238095238095202"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="0"/>
+    <n v="62"/>
+    <n v="21.403225806451601"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="19.681818181818102"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="22.3472222222222"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="14.6"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="24.606060606060598"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="24.190476190476101"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="0"/>
+    <n v="62"/>
+    <n v="26.451612903225801"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="20.315789473684202"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="0"/>
+    <n v="49"/>
+    <n v="16.1428571428571"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="19.909090909090899"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="0"/>
+    <n v="52"/>
+    <n v="17.75"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="0"/>
+    <n v="86"/>
+    <n v="24.5"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="22.0416666666666"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="0"/>
+    <n v="94"/>
+    <n v="23.7659574468085"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="15.6521739130434"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="0"/>
+    <n v="81"/>
+    <n v="23.395061728395"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="19.230769230769202"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="22.732394366197099"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="21.782608695652101"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="15.7391304347826"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="0"/>
+    <n v="94"/>
+    <n v="19.670212765957402"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="16.545454545454501"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="0"/>
+    <n v="93"/>
+    <n v="17.462365591397798"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="19.434782608695599"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="20.16"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="21.071428571428498"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="22.7261904761904"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="21.1666666666666"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="0"/>
+    <n v="107"/>
+    <n v="18.224299065420499"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="16.2"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="21.2361111111111"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="14.9333333333333"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="24.840579710144901"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="21.9130434782608"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="0"/>
+    <n v="108"/>
+    <n v="16.981481481481399"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="12.8333333333333"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="0"/>
+    <n v="97"/>
+    <n v="18.670103092783499"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="18.0416666666666"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="0"/>
+    <n v="99"/>
+    <n v="21.262626262626199"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="18.2916666666666"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="0"/>
+    <n v="99"/>
+    <n v="20.3333333333333"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="19.9583333333333"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="23.288888888888799"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="13.3478260869565"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="25.848101265822699"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="20.5217391304347"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="0"/>
+    <n v="52"/>
+    <n v="28.307692307692299"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="19.578947368421002"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="21.378048780487799"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="20.181818181818102"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <x v="0"/>
+    <n v="99"/>
+    <n v="20.878787878787801"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="19.8333333333333"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="22.367346938775501"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="17.636363636363601"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <x v="0"/>
+    <n v="104"/>
+    <n v="21.019230769230699"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="21.1666666666666"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <x v="0"/>
+    <n v="103"/>
+    <n v="25.145631067961101"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="13.9565217391304"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <x v="0"/>
+    <n v="74"/>
+    <n v="20.851351351351301"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="18.5"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="23.3333333333333"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="20.470588235294102"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="0"/>
+    <n v="115"/>
+    <n v="16.773913043478199"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="20.565217391304301"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <x v="0"/>
+    <n v="103"/>
+    <n v="18.194174757281498"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="21.2"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="21.266666666666602"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="24.8947368421052"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="0"/>
+    <n v="108"/>
+    <n v="21.8055555555555"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="20.363636363636299"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="0"/>
+    <n v="105"/>
+    <n v="21.980952380952299"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="13.0416666666666"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <x v="0"/>
+    <n v="89"/>
+    <n v="18.5617977528089"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="15.6521739130434"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <x v="0"/>
+    <n v="103"/>
+    <n v="19.825242718446599"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="10.28"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="18.350000000000001"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="19.126436781609101"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="12.409090909090899"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="18.3"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="18.350000000000001"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <x v="0"/>
+    <n v="106"/>
+    <n v="16.6132075471698"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="24.318181818181799"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <x v="0"/>
+    <n v="107"/>
+    <n v="20.616822429906499"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="11.2222222222222"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="19.988235294117601"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="8.1739130434782599"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="17.877551020408099"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="13.6086956521739"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <x v="0"/>
+    <n v="107"/>
+    <n v="18.981308411214901"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="12.714285714285699"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <x v="0"/>
+    <n v="104"/>
+    <n v="17.451923076922998"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="20.6666666666666"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="0"/>
+    <n v="107"/>
+    <n v="15.5233644859813"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="10.619047619047601"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <x v="0"/>
+    <n v="107"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="11.0833333333333"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <x v="0"/>
+    <n v="74"/>
+    <n v="21.229729729729701"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="18.9375"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="0"/>
+    <n v="78"/>
+    <n v="20.4871794871794"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="18.1428571428571"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <x v="0"/>
+    <n v="94"/>
+    <n v="17.9255319148936"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="18.136363636363601"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="19.857142857142801"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="10.45"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="19.452631578947301"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="17.727272727272702"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="19.7717391304347"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="16.318181818181799"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="19.536842105263101"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="14.1428571428571"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="24.095238095237999"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="27.6666666666666"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="17.704225352112601"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="15.9130434782608"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="20.4166666666666"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="7.8"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <x v="0"/>
+    <n v="106"/>
+    <n v="16.1698113207547"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <x v="1"/>
+    <n v="24"/>
+    <n v="18.7916666666666"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="20.042105263157801"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="13.619047619047601"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="18.152941176470499"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="28.577777777777701"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="10.1111111111111"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <x v="0"/>
+    <n v="39"/>
+    <n v="25.1538461538461"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <x v="0"/>
+    <n v="88"/>
+    <n v="20.772727272727199"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="14.5"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <x v="0"/>
+    <n v="110"/>
+    <n v="16.172727272727201"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="13.8888888888888"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <x v="0"/>
+    <n v="91"/>
+    <n v="11.4175824175824"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="7.0625"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="16.746987951807199"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <x v="0"/>
+    <n v="62"/>
+    <n v="14.7419354838709"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="13.6"/>
+  </r>
+  <r>
+    <x v="185"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="18.488888888888798"/>
+  </r>
+  <r>
+    <x v="185"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="7.93333333333333"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="16.875"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="11.823529411764699"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <x v="0"/>
+    <n v="76"/>
+    <n v="17.592105263157801"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="8.86666666666666"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="12.3673469387755"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="12.785714285714199"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <x v="0"/>
+    <n v="59"/>
+    <n v="15.033898305084699"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="13.1830985915492"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <x v="0"/>
+    <n v="78"/>
+    <n v="13.358974358974301"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="14.9"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="15.6666666666666"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="14.9166666666666"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <x v="0"/>
+    <n v="63"/>
+    <n v="12.952380952380899"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="16.266666666666602"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="11.2666666666666"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="3.25"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="15.9154929577464"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="15.3333333333333"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <x v="0"/>
+    <n v="52"/>
+    <n v="12.538461538461499"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="29.5833333333333"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <x v="0"/>
+    <n v="64"/>
+    <n v="11.5"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="13.4545454545454"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="14.2666666666666"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="27.4545454545454"/>
+  </r>
+  <r>
+    <x v="199"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="18.170731707317"/>
+  </r>
+  <r>
+    <x v="199"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="12.769230769230701"/>
+  </r>
+  <r>
+    <x v="200"/>
+    <x v="0"/>
+    <n v="58"/>
+    <n v="13.913793103448199"/>
+  </r>
+  <r>
+    <x v="200"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="4.93333333333333"/>
+  </r>
+  <r>
+    <x v="201"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="201"/>
+    <x v="0"/>
+    <n v="64"/>
+    <n v="14.875"/>
+  </r>
+  <r>
+    <x v="201"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="5.9230769230769198"/>
+  </r>
+  <r>
+    <x v="202"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="12.8611111111111"/>
+  </r>
+  <r>
+    <x v="202"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <x v="0"/>
+    <n v="51"/>
+    <n v="11.176470588235199"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="11.133333333333301"/>
+  </r>
+  <r>
+    <x v="204"/>
+    <x v="0"/>
+    <n v="65"/>
+    <n v="8.2923076923076895"/>
+  </r>
+  <r>
+    <x v="204"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <x v="0"/>
+    <n v="73"/>
+    <n v="10.082191780821899"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="8.5454545454545396"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <x v="0"/>
+    <n v="88"/>
+    <n v="18.772727272727199"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="5.5"/>
+  </r>
+  <r>
+    <x v="207"/>
+    <x v="0"/>
+    <n v="60"/>
+    <n v="12.35"/>
+  </r>
+  <r>
+    <x v="207"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="16.600000000000001"/>
+  </r>
+  <r>
+    <x v="208"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="13.6376811594202"/>
+  </r>
+  <r>
+    <x v="208"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="209"/>
+    <x v="0"/>
+    <n v="96"/>
+    <n v="12.2291666666666"/>
+  </r>
+  <r>
+    <x v="209"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="6.2307692307692299"/>
+  </r>
+  <r>
+    <x v="210"/>
+    <x v="0"/>
+    <n v="60"/>
+    <n v="10.7"/>
+  </r>
+  <r>
+    <x v="210"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="11.5833333333333"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <x v="0"/>
+    <n v="60"/>
+    <n v="13.233333333333301"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="20.818181818181799"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <x v="0"/>
+    <n v="60"/>
+    <n v="16.3333333333333"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="213"/>
+    <x v="0"/>
+    <n v="56"/>
+    <n v="26.839285714285701"/>
+  </r>
+  <r>
+    <x v="213"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="24.538461538461501"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <x v="0"/>
+    <n v="51"/>
+    <n v="27.2156862745098"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="30.4"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="12.3333333333333"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="216"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="216"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="19.337349397590302"/>
+  </r>
+  <r>
+    <x v="216"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="217"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="10.567164179104401"/>
+  </r>
+  <r>
+    <x v="217"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="20.9166666666666"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <x v="0"/>
+    <n v="68"/>
+    <n v="17.794117647058801"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="219"/>
+    <x v="0"/>
+    <n v="56"/>
+    <n v="12.1428571428571"/>
+  </r>
+  <r>
+    <x v="219"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="220"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="220"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="8.71428571428571"/>
+  </r>
+  <r>
+    <x v="221"/>
+    <x v="0"/>
+    <n v="64"/>
+    <n v="18.03125"/>
+  </r>
+  <r>
+    <x v="221"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="17.428571428571399"/>
+  </r>
+  <r>
+    <x v="222"/>
+    <x v="0"/>
+    <n v="70"/>
+    <n v="20.5857142857142"/>
+  </r>
+  <r>
+    <x v="222"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="14.2"/>
+  </r>
+  <r>
+    <x v="223"/>
+    <x v="0"/>
+    <n v="91"/>
+    <n v="11.6043956043956"/>
+  </r>
+  <r>
+    <x v="223"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="11.4285714285714"/>
+  </r>
+  <r>
+    <x v="224"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="10.746478873239401"/>
+  </r>
+  <r>
+    <x v="224"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="9.8333333333333304"/>
+  </r>
+  <r>
+    <x v="225"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="225"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="13.0151515151515"/>
+  </r>
+  <r>
+    <x v="225"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="226"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="13.670731707317"/>
+  </r>
+  <r>
+    <x v="226"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="9.0769230769230695"/>
+  </r>
+  <r>
+    <x v="227"/>
+    <x v="0"/>
+    <n v="93"/>
+    <n v="17.1827956989247"/>
+  </r>
+  <r>
+    <x v="227"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="13.285714285714199"/>
+  </r>
+  <r>
+    <x v="228"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="228"/>
+    <x v="0"/>
+    <n v="76"/>
+    <n v="18.105263157894701"/>
+  </r>
+  <r>
+    <x v="228"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="11.75"/>
+  </r>
+  <r>
+    <x v="229"/>
+    <x v="0"/>
+    <n v="86"/>
+    <n v="14.8720930232558"/>
+  </r>
+  <r>
+    <x v="229"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="12.6"/>
+  </r>
+  <r>
+    <x v="230"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="17.989130434782599"/>
+  </r>
+  <r>
+    <x v="230"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="2.5"/>
+  </r>
+  <r>
+    <x v="231"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="17.182926829268201"/>
+  </r>
+  <r>
+    <x v="231"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="232"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="15.586206896551699"/>
+  </r>
+  <r>
+    <x v="232"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="7.5"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <x v="0"/>
+    <n v="56"/>
+    <n v="19.410714285714199"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="28.5"/>
+  </r>
+  <r>
+    <x v="234"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="21.969696969696901"/>
+  </r>
+  <r>
+    <x v="234"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="26.2"/>
+  </r>
+  <r>
+    <x v="235"/>
+    <x v="0"/>
+    <n v="55"/>
+    <n v="21.509090909090901"/>
+  </r>
+  <r>
+    <x v="235"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="12.2222222222222"/>
+  </r>
+  <r>
+    <x v="236"/>
+    <x v="0"/>
+    <n v="58"/>
+    <n v="16.551724137931"/>
+  </r>
+  <r>
+    <x v="236"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="11.125"/>
+  </r>
+  <r>
+    <x v="237"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="11.9375"/>
+  </r>
+  <r>
+    <x v="237"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="238"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="16.5833333333333"/>
+  </r>
+  <r>
+    <x v="238"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="14.4615384615384"/>
+  </r>
+  <r>
+    <x v="239"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="23.106060606060598"/>
+  </r>
+  <r>
+    <x v="239"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="4.2307692307692299"/>
+  </r>
+  <r>
+    <x v="240"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="18.386666666666599"/>
+  </r>
+  <r>
+    <x v="240"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="21.466666666666601"/>
+  </r>
+  <r>
+    <x v="241"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="241"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="19.149425287356301"/>
+  </r>
+  <r>
+    <x v="241"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="11.285714285714199"/>
+  </r>
+  <r>
+    <x v="242"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="19.6111111111111"/>
+  </r>
+  <r>
+    <x v="242"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="17.5"/>
+  </r>
+  <r>
+    <x v="243"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="243"/>
+    <x v="0"/>
+    <n v="78"/>
+    <n v="20.6666666666666"/>
+  </r>
+  <r>
+    <x v="243"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="7.125"/>
+  </r>
+  <r>
+    <x v="244"/>
+    <x v="0"/>
+    <n v="94"/>
+    <n v="17.031914893617"/>
+  </r>
+  <r>
+    <x v="244"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="4.8235294117647003"/>
+  </r>
+  <r>
+    <x v="245"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="245"/>
+    <x v="0"/>
+    <n v="81"/>
+    <n v="17.740740740740701"/>
+  </r>
+  <r>
+    <x v="245"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="15.307692307692299"/>
+  </r>
+  <r>
+    <x v="246"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="14.4"/>
+  </r>
+  <r>
+    <x v="246"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="6.8"/>
+  </r>
+  <r>
+    <x v="247"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="247"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="13.35"/>
+  </r>
+  <r>
+    <x v="247"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="8.375"/>
+  </r>
+  <r>
+    <x v="248"/>
+    <x v="0"/>
+    <n v="91"/>
+    <n v="11.9010989010989"/>
+  </r>
+  <r>
+    <x v="248"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="5.2"/>
+  </r>
+  <r>
+    <x v="249"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="19.611940298507399"/>
+  </r>
+  <r>
+    <x v="249"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="14.9411764705882"/>
+  </r>
+  <r>
+    <x v="250"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="14.64"/>
+  </r>
+  <r>
+    <x v="250"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="11.8666666666666"/>
+  </r>
+  <r>
+    <x v="251"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="251"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="17.149999999999999"/>
+  </r>
+  <r>
+    <x v="251"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="14.1428571428571"/>
+  </r>
+  <r>
+    <x v="252"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="11.5"/>
+  </r>
+  <r>
+    <x v="252"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="2.3636363636363602"/>
+  </r>
+  <r>
+    <x v="253"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="253"/>
+    <x v="0"/>
+    <n v="51"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="253"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="8.8888888888888893"/>
+  </r>
+  <r>
+    <x v="254"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="254"/>
+    <x v="0"/>
+    <n v="63"/>
+    <n v="9.1587301587301493"/>
+  </r>
+  <r>
+    <x v="254"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="13.6666666666666"/>
+  </r>
+  <r>
+    <x v="255"/>
+    <x v="0"/>
+    <n v="76"/>
+    <n v="8.6842105263157894"/>
+  </r>
+  <r>
+    <x v="255"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="16.692307692307601"/>
+  </r>
+  <r>
+    <x v="256"/>
+    <x v="0"/>
+    <n v="63"/>
+    <n v="13.8095238095238"/>
+  </r>
+  <r>
+    <x v="256"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="9.8235294117646994"/>
+  </r>
+  <r>
+    <x v="257"/>
+    <x v="0"/>
+    <n v="70"/>
+    <n v="10.814285714285701"/>
+  </r>
+  <r>
+    <x v="257"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="2.2000000000000002"/>
+  </r>
+  <r>
+    <x v="258"/>
+    <x v="0"/>
+    <n v="57"/>
+    <n v="9.6140350877192908"/>
+  </r>
+  <r>
+    <x v="258"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="4.5"/>
+  </r>
+  <r>
+    <x v="259"/>
+    <x v="0"/>
+    <n v="41"/>
+    <n v="9.1707317073170707"/>
+  </r>
+  <r>
+    <x v="259"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="260"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="260"/>
+    <x v="0"/>
+    <n v="44"/>
+    <n v="12.9772727272727"/>
+  </r>
+  <r>
+    <x v="260"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="2.9"/>
+  </r>
+  <r>
+    <x v="261"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="261"/>
+    <x v="0"/>
+    <n v="58"/>
+    <n v="13.2758620689655"/>
+  </r>
+  <r>
+    <x v="262"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="15.292682926829199"/>
+  </r>
+  <r>
+    <x v="262"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="26.384615384615302"/>
+  </r>
+  <r>
+    <x v="263"/>
+    <x v="0"/>
+    <n v="68"/>
+    <n v="13.617647058823501"/>
+  </r>
+  <r>
+    <x v="263"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="2.9411764705882302"/>
+  </r>
+  <r>
+    <x v="264"/>
+    <x v="0"/>
+    <n v="39"/>
+    <n v="11.2564102564102"/>
+  </r>
+  <r>
+    <x v="264"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="3.5714285714285698"/>
+  </r>
+  <r>
+    <x v="265"/>
+    <x v="0"/>
+    <n v="65"/>
+    <n v="15.138461538461501"/>
+  </r>
+  <r>
+    <x v="265"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="3.6"/>
+  </r>
+  <r>
+    <x v="266"/>
+    <x v="0"/>
+    <n v="44"/>
+    <n v="10.568181818181801"/>
+  </r>
+  <r>
+    <x v="266"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="8.0909090909090899"/>
+  </r>
+  <r>
+    <x v="267"/>
+    <x v="0"/>
+    <n v="39"/>
+    <n v="7.1282051282051198"/>
+  </r>
+  <r>
+    <x v="267"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="268"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="268"/>
+    <x v="0"/>
+    <n v="64"/>
+    <n v="10.65625"/>
+  </r>
+  <r>
+    <x v="268"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="5.6"/>
+  </r>
+  <r>
+    <x v="269"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="14.4125"/>
+  </r>
+  <r>
+    <x v="269"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="8.4"/>
+  </r>
+  <r>
+    <x v="270"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="12.3880597014925"/>
+  </r>
+  <r>
+    <x v="270"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="16.470588235294102"/>
+  </r>
+  <r>
+    <x v="271"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="271"/>
+    <x v="0"/>
+    <n v="74"/>
+    <n v="11.4189189189189"/>
+  </r>
+  <r>
+    <x v="271"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="1.4666666666666599"/>
+  </r>
+  <r>
+    <x v="272"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="10.85"/>
+  </r>
+  <r>
+    <x v="272"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="273"/>
+    <x v="0"/>
+    <n v="53"/>
+    <n v="7.1320754716981103"/>
+  </r>
+  <r>
+    <x v="273"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="1.1818181818181801"/>
+  </r>
+  <r>
+    <x v="274"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="274"/>
+    <x v="0"/>
+    <n v="55"/>
+    <n v="6.4"/>
+  </r>
+  <r>
+    <x v="274"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="18.600000000000001"/>
+  </r>
+  <r>
+    <x v="275"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="275"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="8.4166666666666607"/>
+  </r>
+  <r>
+    <x v="275"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="3.3"/>
+  </r>
+  <r>
+    <x v="276"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="276"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="15.5555555555555"/>
+  </r>
+  <r>
+    <x v="276"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="7.7692307692307603"/>
+  </r>
+  <r>
+    <x v="277"/>
+    <x v="0"/>
+    <n v="62"/>
+    <n v="18.677419354838701"/>
+  </r>
+  <r>
+    <x v="277"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="4.7368421052631504"/>
+  </r>
+  <r>
+    <x v="278"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="16.567164179104399"/>
+  </r>
+  <r>
+    <x v="278"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="6.2"/>
+  </r>
+  <r>
+    <x v="279"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="13.434782608695601"/>
+  </r>
+  <r>
+    <x v="279"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="13.714285714285699"/>
+  </r>
+  <r>
+    <x v="280"/>
+    <x v="0"/>
+    <n v="54"/>
+    <n v="8.2407407407407405"/>
+  </r>
+  <r>
+    <x v="280"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="281"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="281"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="10.4626865671641"/>
+  </r>
+  <r>
+    <x v="281"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="13.363636363636299"/>
+  </r>
+  <r>
+    <x v="282"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="282"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="11.119402985074601"/>
+  </r>
+  <r>
+    <x v="282"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="12.8333333333333"/>
+  </r>
+  <r>
+    <x v="283"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="283"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="15.45"/>
+  </r>
+  <r>
+    <x v="283"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="15.538461538461499"/>
+  </r>
+  <r>
+    <x v="284"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="284"/>
+    <x v="0"/>
+    <n v="76"/>
+    <n v="17.421052631578899"/>
+  </r>
+  <r>
+    <x v="284"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="13.625"/>
+  </r>
+  <r>
+    <x v="285"/>
+    <x v="0"/>
+    <n v="88"/>
+    <n v="11.068181818181801"/>
+  </r>
+  <r>
+    <x v="285"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="7.4666666666666597"/>
+  </r>
+  <r>
+    <x v="286"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="9.9693877551020407"/>
+  </r>
+  <r>
+    <x v="286"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="8.4666666666666597"/>
+  </r>
+  <r>
+    <x v="287"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="287"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="10.6086956521739"/>
+  </r>
+  <r>
+    <x v="287"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="19.5"/>
+  </r>
+  <r>
+    <x v="288"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="288"/>
+    <x v="0"/>
+    <n v="78"/>
+    <n v="10.2564102564102"/>
+  </r>
+  <r>
+    <x v="288"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="289"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="14.785714285714199"/>
+  </r>
+  <r>
+    <x v="289"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="7.8"/>
+  </r>
+  <r>
+    <x v="290"/>
+    <x v="0"/>
+    <n v="78"/>
+    <n v="15.1538461538461"/>
+  </r>
+  <r>
+    <x v="290"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="8.0526315789473593"/>
+  </r>
+  <r>
+    <x v="291"/>
+    <x v="0"/>
+    <n v="77"/>
+    <n v="17.207792207792199"/>
+  </r>
+  <r>
+    <x v="291"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="292"/>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="12.88"/>
+  </r>
+  <r>
+    <x v="292"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="2.7333333333333298"/>
+  </r>
+  <r>
+    <x v="293"/>
+    <x v="0"/>
+    <n v="68"/>
+    <n v="8.7058823529411704"/>
+  </r>
+  <r>
+    <x v="293"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="7.2307692307692299"/>
+  </r>
+  <r>
+    <x v="294"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="294"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="8.9253731343283498"/>
+  </r>
+  <r>
+    <x v="294"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="8.8181818181818095"/>
+  </r>
+  <r>
+    <x v="295"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="295"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="10.96"/>
+  </r>
+  <r>
+    <x v="295"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="9.5833333333333304"/>
+  </r>
+  <r>
+    <x v="296"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="15.297619047618999"/>
+  </r>
+  <r>
+    <x v="296"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="8.3333333333333304"/>
+  </r>
+  <r>
+    <x v="297"/>
+    <x v="0"/>
+    <n v="73"/>
+    <n v="14.150684931506801"/>
+  </r>
+  <r>
+    <x v="297"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="18.647058823529399"/>
+  </r>
+  <r>
+    <x v="298"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="298"/>
+    <x v="0"/>
+    <n v="54"/>
+    <n v="14.814814814814801"/>
+  </r>
+  <r>
+    <x v="298"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="299"/>
+    <x v="0"/>
+    <n v="61"/>
+    <n v="9.8032786885245908"/>
+  </r>
+  <r>
+    <x v="299"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="300"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="10.757575757575699"/>
+  </r>
+  <r>
+    <x v="300"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="1.2307692307692299"/>
+  </r>
+  <r>
+    <x v="301"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="301"/>
+    <x v="0"/>
+    <n v="65"/>
+    <n v="10.4461538461538"/>
+  </r>
+  <r>
+    <x v="301"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="0.9"/>
+  </r>
+  <r>
+    <x v="302"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="302"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="10.387499999999999"/>
+  </r>
+  <r>
+    <x v="302"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="9.8461538461538396"/>
+  </r>
+  <r>
+    <x v="303"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="18.931034482758601"/>
+  </r>
+  <r>
+    <x v="303"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="19.923076923076898"/>
+  </r>
+  <r>
+    <x v="304"/>
+    <x v="0"/>
+    <n v="74"/>
+    <n v="16.189189189189101"/>
+  </r>
+  <r>
+    <x v="304"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="15.588235294117601"/>
+  </r>
+  <r>
+    <x v="305"/>
+    <x v="0"/>
+    <n v="77"/>
+    <n v="14.636363636363599"/>
+  </r>
+  <r>
+    <x v="305"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="10.8"/>
+  </r>
+  <r>
+    <x v="306"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="306"/>
+    <x v="0"/>
+    <n v="91"/>
+    <n v="15.109890109890101"/>
+  </r>
+  <r>
+    <x v="306"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="19.714285714285701"/>
+  </r>
+  <r>
+    <x v="307"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="11.3333333333333"/>
+  </r>
+  <r>
+    <x v="307"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="13.769230769230701"/>
+  </r>
+  <r>
+    <x v="308"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="308"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="9.6133333333333297"/>
+  </r>
+  <r>
+    <x v="308"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="18.909090909090899"/>
+  </r>
+  <r>
+    <x v="309"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="13.8390804597701"/>
+  </r>
+  <r>
+    <x v="309"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="8.3636363636363598"/>
+  </r>
+  <r>
+    <x v="310"/>
+    <x v="0"/>
+    <n v="94"/>
+    <n v="17.489361702127599"/>
+  </r>
+  <r>
+    <x v="310"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="12.1428571428571"/>
+  </r>
+  <r>
+    <x v="311"/>
+    <x v="0"/>
+    <n v="74"/>
+    <n v="13.459459459459399"/>
+  </r>
+  <r>
+    <x v="311"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="17.470588235294102"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <x v="0"/>
+    <n v="77"/>
+    <n v="19.077922077922"/>
+  </r>
+  <r>
+    <x v="312"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="6.86666666666666"/>
+  </r>
+  <r>
+    <x v="313"/>
+    <x v="0"/>
+    <n v="99"/>
+    <n v="12.272727272727201"/>
+  </r>
+  <r>
+    <x v="313"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="23.375"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="9.68"/>
+  </r>
+  <r>
+    <x v="314"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="16.769230769230699"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <x v="0"/>
+    <n v="76"/>
+    <n v="10.934210526315701"/>
+  </r>
+  <r>
+    <x v="315"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="1.1818181818181801"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="13.8414634146341"/>
+  </r>
+  <r>
+    <x v="316"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="20.090909090909001"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <x v="0"/>
+    <n v="104"/>
+    <n v="18.134615384615302"/>
+  </r>
+  <r>
+    <x v="317"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="10.4"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="16.5189873417721"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="13.5555555555555"/>
+  </r>
+  <r>
+    <x v="319"/>
+    <x v="0"/>
+    <n v="88"/>
+    <n v="10.636363636363599"/>
+  </r>
+  <r>
+    <x v="319"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="6.9285714285714199"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="0"/>
+    <n v="105"/>
+    <n v="14.6380952380952"/>
+  </r>
+  <r>
+    <x v="320"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="15.9375"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="11.072463768115901"/>
+  </r>
+  <r>
+    <x v="321"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="15.75"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="0"/>
+    <n v="77"/>
+    <n v="7.4155844155844104"/>
+  </r>
+  <r>
+    <x v="322"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="11.7"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="12.523809523809501"/>
+  </r>
+  <r>
+    <x v="323"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="19.272727272727199"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="16.863157894736801"/>
+  </r>
+  <r>
+    <x v="324"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="8.3571428571428505"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="0"/>
+    <n v="77"/>
+    <n v="16.545454545454501"/>
+  </r>
+  <r>
+    <x v="325"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="17.117647058823501"/>
+  </r>
+  <r>
+    <x v="326"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="326"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="14.517241379310301"/>
+  </r>
+  <r>
+    <x v="326"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="5.5714285714285703"/>
+  </r>
+  <r>
+    <x v="327"/>
+    <x v="0"/>
+    <n v="110"/>
+    <n v="15.945454545454499"/>
+  </r>
+  <r>
+    <x v="327"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="16.066666666666599"/>
+  </r>
+  <r>
+    <x v="328"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="328"/>
+    <x v="0"/>
+    <n v="78"/>
+    <n v="12.269230769230701"/>
+  </r>
+  <r>
+    <x v="328"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <x v="0"/>
+    <n v="81"/>
+    <n v="15.481481481481399"/>
+  </r>
+  <r>
+    <x v="329"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="1.6923076923076901"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <x v="0"/>
+    <n v="65"/>
+    <n v="20.476923076923001"/>
+  </r>
+  <r>
+    <x v="330"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="16.5625"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="18.466666666666601"/>
+  </r>
+  <r>
+    <x v="331"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="0"/>
+    <n v="74"/>
+    <n v="17.797297297297298"/>
+  </r>
+  <r>
+    <x v="332"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="14.105263157894701"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="0"/>
+    <n v="99"/>
+    <n v="14.313131313131301"/>
+  </r>
+  <r>
+    <x v="333"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="18.6666666666666"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <x v="0"/>
+    <n v="93"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="334"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="11.066666666666601"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="15.9425287356321"/>
+  </r>
+  <r>
+    <x v="335"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="16.5263157894736"/>
+  </r>
+  <r>
+    <x v="336"/>
+    <x v="0"/>
+    <n v="99"/>
+    <n v="18.040404040403999"/>
+  </r>
+  <r>
+    <x v="336"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="12.9"/>
+  </r>
+  <r>
+    <x v="337"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="337"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="18.985915492957702"/>
+  </r>
+  <r>
+    <x v="337"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="18.2631578947368"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="20.988235294117601"/>
+  </r>
+  <r>
+    <x v="338"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="15.647058823529401"/>
+  </r>
+  <r>
+    <x v="339"/>
+    <x v="0"/>
+    <n v="53"/>
+    <n v="22.5471698113207"/>
+  </r>
+  <r>
+    <x v="339"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="12.8823529411764"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="0"/>
+    <n v="62"/>
+    <n v="20.064516129032199"/>
+  </r>
+  <r>
+    <x v="340"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="16.235294117647001"/>
+  </r>
+  <r>
+    <x v="341"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="341"/>
+    <x v="0"/>
+    <n v="102"/>
+    <n v="14.1862745098039"/>
+  </r>
+  <r>
+    <x v="341"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="13.705882352941099"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="12.1111111111111"/>
+  </r>
+  <r>
+    <x v="342"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="16.3333333333333"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="12.887755102040799"/>
+  </r>
+  <r>
+    <x v="343"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="12.5263157894736"/>
+  </r>
+  <r>
+    <x v="344"/>
+    <x v="0"/>
+    <n v="89"/>
+    <n v="15.303370786516799"/>
+  </r>
+  <r>
+    <x v="344"/>
+    <x v="1"/>
+    <n v="22"/>
+    <n v="19.045454545454501"/>
+  </r>
+  <r>
+    <x v="345"/>
+    <x v="0"/>
+    <n v="105"/>
+    <n v="18.5904761904761"/>
+  </r>
+  <r>
+    <x v="345"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="12.5"/>
+  </r>
+  <r>
+    <x v="346"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="17.8125"/>
+  </r>
+  <r>
+    <x v="346"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="10.538461538461499"/>
+  </r>
+  <r>
+    <x v="347"/>
+    <x v="0"/>
+    <n v="96"/>
+    <n v="14.6666666666666"/>
+  </r>
+  <r>
+    <x v="347"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="7.2105263157894699"/>
+  </r>
+  <r>
+    <x v="348"/>
+    <x v="0"/>
+    <n v="97"/>
+    <n v="17.958762886597899"/>
+  </r>
+  <r>
+    <x v="348"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="16.352941176470502"/>
+  </r>
+  <r>
+    <x v="349"/>
+    <x v="0"/>
+    <n v="74"/>
+    <n v="11.4054054054054"/>
+  </r>
+  <r>
+    <x v="349"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="6.5333333333333297"/>
+  </r>
+  <r>
+    <x v="350"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="12.955555555555501"/>
+  </r>
+  <r>
+    <x v="350"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="15.8125"/>
+  </r>
+  <r>
+    <x v="351"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="351"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="18.066666666666599"/>
+  </r>
+  <r>
+    <x v="351"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="11.25"/>
+  </r>
+  <r>
+    <x v="352"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="20.741176470588201"/>
+  </r>
+  <r>
+    <x v="352"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="10.125"/>
+  </r>
+  <r>
+    <x v="353"/>
+    <x v="0"/>
+    <n v="88"/>
+    <n v="20.795454545454501"/>
+  </r>
+  <r>
+    <x v="353"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="11.9411764705882"/>
+  </r>
+  <r>
+    <x v="354"/>
+    <x v="0"/>
+    <n v="86"/>
+    <n v="19.116279069767401"/>
+  </r>
+  <r>
+    <x v="354"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="14.789473684210501"/>
+  </r>
+  <r>
+    <x v="355"/>
+    <x v="0"/>
+    <n v="97"/>
+    <n v="13.9690721649484"/>
+  </r>
+  <r>
+    <x v="355"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="15.4705882352941"/>
+  </r>
+  <r>
+    <x v="356"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="14.689655172413699"/>
+  </r>
+  <r>
+    <x v="356"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="11.8"/>
+  </r>
+  <r>
+    <x v="357"/>
+    <x v="0"/>
+    <n v="102"/>
+    <n v="16.470588235294102"/>
+  </r>
+  <r>
+    <x v="357"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="358"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="14.4556962025316"/>
+  </r>
+  <r>
+    <x v="358"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="14.1666666666666"/>
+  </r>
+  <r>
+    <x v="359"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="359"/>
+    <x v="0"/>
+    <n v="103"/>
+    <n v="14.1553398058252"/>
+  </r>
+  <r>
+    <x v="359"/>
+    <x v="1"/>
+    <n v="18"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="360"/>
+    <x v="0"/>
+    <n v="73"/>
+    <n v="16.123287671232799"/>
+  </r>
+  <r>
+    <x v="360"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="15.157894736842101"/>
+  </r>
+  <r>
+    <x v="361"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="14.043478260869501"/>
+  </r>
+  <r>
+    <x v="361"/>
+    <x v="1"/>
+    <n v="19"/>
+    <n v="11.8421052631578"/>
+  </r>
+  <r>
+    <x v="362"/>
+    <x v="0"/>
+    <n v="109"/>
+    <n v="13.440366972476999"/>
+  </r>
+  <r>
+    <x v="362"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="10.2307692307692"/>
+  </r>
+  <r>
+    <x v="363"/>
+    <x v="0"/>
+    <n v="86"/>
+    <n v="10.895348837209299"/>
+  </r>
+  <r>
+    <x v="363"/>
+    <x v="1"/>
+    <n v="21"/>
+    <n v="16.285714285714199"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{211454AC-1826-4574-AAC0-A05CCC46942D}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="365">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="6"/>
+    <field x="4"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of total_flights" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -884,13 +6791,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963E50F0-965F-4228-8B6E-6B6408141301}">
+  <dimension ref="A3:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4418</v>
+      </c>
+      <c r="C5" s="5">
+        <v>19715</v>
+      </c>
+      <c r="D5" s="5">
+        <v>24133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>583</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2537</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5">
+        <v>633</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2387</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>660</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2450</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>599</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2512</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>638</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2739</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5">
+        <v>580</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2766</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
+        <v>352</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2137</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5">
+        <v>373</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2187</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1689</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9381</v>
+      </c>
+      <c r="D14" s="5">
+        <v>11070</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5">
+        <v>347</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2031</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5">
+        <v>386</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2106</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5">
+        <v>435</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2596</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5">
+        <v>521</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2648</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6107</v>
+      </c>
+      <c r="C19" s="5">
+        <v>29096</v>
+      </c>
+      <c r="D19" s="5">
+        <v>35203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F98530-EA72-4FE3-98ED-08C0C795F1C1}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -913,7 +7073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45047</v>
       </c>
@@ -941,7 +7101,7 @@
         <v>18.9444444444444</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45048</v>
       </c>
@@ -969,7 +7129,7 @@
         <v>17.904761904761902</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45049</v>
       </c>
@@ -997,7 +7157,7 @@
         <v>9.7619047619047592</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45050</v>
       </c>
@@ -1025,7 +7185,7 @@
         <v>18.357142857142801</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45051</v>
       </c>
@@ -1053,7 +7213,7 @@
         <v>12.578947368421</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45052</v>
       </c>
@@ -1081,7 +7241,7 @@
         <v>16.772727272727199</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45053</v>
       </c>
@@ -1109,7 +7269,7 @@
         <v>18.4166666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45054</v>
       </c>
@@ -1137,7 +7297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45055</v>
       </c>
@@ -1165,7 +7325,7 @@
         <v>16.571428571428498</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45056</v>
       </c>
@@ -1193,7 +7353,7 @@
         <v>11.772727272727201</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45057</v>
       </c>
@@ -1235,7 +7395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45058</v>
       </c>
@@ -1263,7 +7423,7 @@
         <v>16.1111111111111</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45059</v>
       </c>
@@ -1291,7 +7451,7 @@
         <v>14.4285714285714</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45060</v>
       </c>
@@ -1319,7 +7479,7 @@
         <v>16.6086956521739</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45061</v>
       </c>
@@ -1347,7 +7507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45062</v>
       </c>
@@ -1375,7 +7535,7 @@
         <v>13.4166666666666</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45063</v>
       </c>
@@ -1403,7 +7563,7 @@
         <v>16.684210526315699</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45064</v>
       </c>
@@ -1431,7 +7591,7 @@
         <v>14.625</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45065</v>
       </c>
@@ -1459,7 +7619,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45066</v>
       </c>
@@ -1487,7 +7647,7 @@
         <v>17.3333333333333</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45067</v>
       </c>
@@ -1515,7 +7675,7 @@
         <v>14.772727272727201</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45068</v>
       </c>
@@ -1543,7 +7703,7 @@
         <v>15.65</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45069</v>
       </c>
@@ -1571,7 +7731,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45070</v>
       </c>
@@ -1599,7 +7759,7 @@
         <v>12.45</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45071</v>
       </c>
@@ -1641,7 +7801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45072</v>
       </c>
@@ -1669,7 +7829,7 @@
         <v>22.380952380952301</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45073</v>
       </c>
@@ -1697,7 +7857,7 @@
         <v>20.652173913043399</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45074</v>
       </c>
@@ -1725,7 +7885,7 @@
         <v>16.764705882352899</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45075</v>
       </c>
@@ -1753,7 +7913,7 @@
         <v>9.4285714285714199</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45076</v>
       </c>
@@ -1795,7 +7955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45077</v>
       </c>
@@ -1823,7 +7983,7 @@
         <v>22.4166666666666</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45078</v>
       </c>
@@ -1865,7 +8025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45079</v>
       </c>
@@ -1893,7 +8053,7 @@
         <v>15.6315789473684</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45080</v>
       </c>
@@ -1921,7 +8081,7 @@
         <v>16.7083333333333</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45081</v>
       </c>
@@ -1949,7 +8109,7 @@
         <v>16.523809523809501</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45082</v>
       </c>
@@ -1977,7 +8137,7 @@
         <v>14.076923076923</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45083</v>
       </c>
@@ -2005,7 +8165,7 @@
         <v>16.3333333333333</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45084</v>
       </c>
@@ -2047,7 +8207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45085</v>
       </c>
@@ -2089,7 +8249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45086</v>
       </c>
@@ -2117,7 +8277,7 @@
         <v>14.3157894736842</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45087</v>
       </c>
@@ -2145,7 +8305,7 @@
         <v>18.227272727272702</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45088</v>
       </c>
@@ -2173,7 +8333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45089</v>
       </c>
@@ -2201,7 +8361,7 @@
         <v>18.130434782608599</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45090</v>
       </c>
@@ -2229,7 +8389,7 @@
         <v>22.3333333333333</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45091</v>
       </c>
@@ -2257,7 +8417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45092</v>
       </c>
@@ -2299,7 +8459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45093</v>
       </c>
@@ -2327,7 +8487,7 @@
         <v>13.047619047618999</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45094</v>
       </c>
@@ -2355,7 +8515,7 @@
         <v>24.434782608695599</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45095</v>
       </c>
@@ -2383,7 +8543,7 @@
         <v>18.6666666666666</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45096</v>
       </c>
@@ -2411,7 +8571,7 @@
         <v>17.1428571428571</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45097</v>
       </c>
@@ -2439,7 +8599,7 @@
         <v>23.8095238095238</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45098</v>
       </c>
@@ -2467,7 +8627,7 @@
         <v>16.45</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45099</v>
       </c>
@@ -2495,7 +8655,7 @@
         <v>21.058823529411701</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45100</v>
       </c>
@@ -2523,7 +8683,7 @@
         <v>13.9565217391304</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45101</v>
       </c>
@@ -2551,7 +8711,7 @@
         <v>16.590909090909001</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45102</v>
       </c>
@@ -2593,7 +8753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45103</v>
       </c>
@@ -2621,7 +8781,7 @@
         <v>12.090909090908999</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45104</v>
       </c>
@@ -2649,7 +8809,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45105</v>
       </c>
@@ -2677,7 +8837,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45106</v>
       </c>
@@ -2719,7 +8879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45107</v>
       </c>
@@ -2747,7 +8907,7 @@
         <v>12.1428571428571</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45108</v>
       </c>
@@ -2775,7 +8935,7 @@
         <v>12.3043478260869</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45109</v>
       </c>
@@ -2803,7 +8963,7 @@
         <v>9.7826086956521703</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45110</v>
       </c>
@@ -2831,7 +8991,7 @@
         <v>12.545454545454501</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45111</v>
       </c>
@@ -2859,7 +9019,7 @@
         <v>19.181818181818102</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45112</v>
       </c>
@@ -2887,7 +9047,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45113</v>
       </c>
@@ -2915,7 +9075,7 @@
         <v>12.1666666666666</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45114</v>
       </c>
@@ -2943,7 +9103,7 @@
         <v>14.318181818181801</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45115</v>
       </c>
@@ -2971,7 +9131,7 @@
         <v>22.2173913043478</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45116</v>
       </c>
@@ -2999,7 +9159,7 @@
         <v>26.9130434782608</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45117</v>
       </c>
@@ -3027,7 +9187,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45118</v>
       </c>
@@ -3055,7 +9215,7 @@
         <v>13.409090909090899</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45119</v>
       </c>
@@ -3083,7 +9243,7 @@
         <v>16.318181818181799</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45120</v>
       </c>
@@ -3125,7 +9285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45121</v>
       </c>
@@ -3153,7 +9313,7 @@
         <v>8.1875</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45122</v>
       </c>
@@ -3181,7 +9341,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45123</v>
       </c>
@@ -3209,7 +9369,7 @@
         <v>22.7222222222222</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45124</v>
       </c>
@@ -3237,7 +9397,7 @@
         <v>22.4545454545454</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45125</v>
       </c>
@@ -3265,7 +9425,7 @@
         <v>22.375</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45126</v>
       </c>
@@ -3293,7 +9453,7 @@
         <v>14.4761904761904</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>45127</v>
       </c>
@@ -3321,7 +9481,7 @@
         <v>19.173913043478201</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45128</v>
       </c>
@@ -3349,7 +9509,7 @@
         <v>15.190476190476099</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>45129</v>
       </c>
@@ -3377,7 +9537,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>45130</v>
       </c>
@@ -3405,7 +9565,7 @@
         <v>21.285714285714199</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>45131</v>
       </c>
@@ -3433,7 +9593,7 @@
         <v>22.772727272727199</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>45132</v>
       </c>
@@ -3461,7 +9621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>45133</v>
       </c>
@@ -3489,7 +9649,7 @@
         <v>13.578947368421</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>45134</v>
       </c>
@@ -3517,7 +9677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>45135</v>
       </c>
@@ -3545,7 +9705,7 @@
         <v>19.636363636363601</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>45136</v>
       </c>
@@ -3587,7 +9747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>45137</v>
       </c>
@@ -3629,7 +9789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>45138</v>
       </c>
@@ -3671,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>45139</v>
       </c>
@@ -3699,7 +9859,7 @@
         <v>8.2727272727272698</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>45140</v>
       </c>
@@ -3741,7 +9901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>45141</v>
       </c>
@@ -3783,7 +9943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>45142</v>
       </c>
@@ -3811,7 +9971,7 @@
         <v>14.5714285714285</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>45143</v>
       </c>
@@ -3839,7 +9999,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>45144</v>
       </c>
@@ -3867,7 +10027,7 @@
         <v>14.7222222222222</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>45145</v>
       </c>
@@ -3895,7 +10055,7 @@
         <v>16.5217391304347</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>45146</v>
       </c>
@@ -3923,7 +10083,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>45147</v>
       </c>
@@ -3951,7 +10111,7 @@
         <v>12.8095238095238</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>45148</v>
       </c>
@@ -3993,7 +10153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45149</v>
       </c>
@@ -4021,7 +10181,7 @@
         <v>13.318181818181801</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>45150</v>
       </c>
@@ -4049,7 +10209,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>45151</v>
       </c>
@@ -4077,7 +10237,7 @@
         <v>14.695652173913</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>45152</v>
       </c>
@@ -4105,7 +10265,7 @@
         <v>15.2173913043478</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>45153</v>
       </c>
@@ -4133,7 +10293,7 @@
         <v>17.727272727272702</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>45154</v>
       </c>
@@ -4161,7 +10321,7 @@
         <v>15.875</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>45155</v>
       </c>
@@ -4203,7 +10363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>45156</v>
       </c>
@@ -4231,7 +10391,7 @@
         <v>23.4761904761904</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>45157</v>
       </c>
@@ -4259,7 +10419,7 @@
         <v>11.8666666666666</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>45158</v>
       </c>
@@ -4287,7 +10447,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>45159</v>
       </c>
@@ -4315,7 +10475,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>45160</v>
       </c>
@@ -4343,7 +10503,7 @@
         <v>15.294117647058799</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>45161</v>
       </c>
@@ -4371,7 +10531,7 @@
         <v>16.238095238095202</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>45162</v>
       </c>
@@ -4413,7 +10573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>45163</v>
       </c>
@@ -4441,7 +10601,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>45164</v>
       </c>
@@ -4469,7 +10629,7 @@
         <v>24.190476190476101</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>45165</v>
       </c>
@@ -4497,7 +10657,7 @@
         <v>20.315789473684202</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>45166</v>
       </c>
@@ -4525,7 +10685,7 @@
         <v>19.909090909090899</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>45167</v>
       </c>
@@ -4553,7 +10713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>45168</v>
       </c>
@@ -4581,7 +10741,7 @@
         <v>22.0416666666666</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>45169</v>
       </c>
@@ -4623,7 +10783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>45170</v>
       </c>
@@ -4651,7 +10811,7 @@
         <v>19.230769230769202</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>45171</v>
       </c>
@@ -4679,7 +10839,7 @@
         <v>21.782608695652101</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>45172</v>
       </c>
@@ -4707,7 +10867,7 @@
         <v>15.7391304347826</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>45173</v>
       </c>
@@ -4735,7 +10895,7 @@
         <v>16.545454545454501</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>45174</v>
       </c>
@@ -4763,7 +10923,7 @@
         <v>19.434782608695599</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>45175</v>
       </c>
@@ -4791,7 +10951,7 @@
         <v>21.071428571428498</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>45176</v>
       </c>
@@ -4819,7 +10979,7 @@
         <v>21.1666666666666</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>45177</v>
       </c>
@@ -4847,7 +11007,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>45178</v>
       </c>
@@ -4875,7 +11035,7 @@
         <v>14.9333333333333</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>45179</v>
       </c>
@@ -4903,7 +11063,7 @@
         <v>21.9130434782608</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>45180</v>
       </c>
@@ -4945,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>45181</v>
       </c>
@@ -4973,7 +11133,7 @@
         <v>18.0416666666666</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>45182</v>
       </c>
@@ -5001,7 +11161,7 @@
         <v>18.2916666666666</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>45183</v>
       </c>
@@ -5029,7 +11189,7 @@
         <v>19.9583333333333</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>45184</v>
       </c>
@@ -5057,7 +11217,7 @@
         <v>13.3478260869565</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>45185</v>
       </c>
@@ -5085,7 +11245,7 @@
         <v>20.5217391304347</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>45186</v>
       </c>
@@ -5113,7 +11273,7 @@
         <v>19.578947368421002</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>45187</v>
       </c>
@@ -5141,7 +11301,7 @@
         <v>20.181818181818102</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>45188</v>
       </c>
@@ -5169,7 +11329,7 @@
         <v>19.8333333333333</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>45189</v>
       </c>
@@ -5197,7 +11357,7 @@
         <v>17.636363636363601</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>45190</v>
       </c>
@@ -5239,7 +11399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>45191</v>
       </c>
@@ -5267,7 +11427,7 @@
         <v>13.9565217391304</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>45192</v>
       </c>
@@ -5295,7 +11455,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>45193</v>
       </c>
@@ -5323,7 +11483,7 @@
         <v>20.470588235294102</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>45194</v>
       </c>
@@ -5351,7 +11511,7 @@
         <v>20.565217391304301</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>45195</v>
       </c>
@@ -5379,7 +11539,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>45196</v>
       </c>
@@ -5407,7 +11567,7 @@
         <v>24.8947368421052</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>45197</v>
       </c>
@@ -5435,7 +11595,7 @@
         <v>20.363636363636299</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>45198</v>
       </c>
@@ -5463,7 +11623,7 @@
         <v>13.0416666666666</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>45199</v>
       </c>
@@ -5491,7 +11651,7 @@
         <v>15.6521739130434</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>45200</v>
       </c>
@@ -5519,7 +11679,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>45201</v>
       </c>
@@ -5547,7 +11707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>45202</v>
       </c>
@@ -5575,7 +11735,7 @@
         <v>12.409090909090899</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>45203</v>
       </c>
@@ -5603,7 +11763,7 @@
         <v>18.350000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>45204</v>
       </c>
@@ -5631,7 +11791,7 @@
         <v>24.318181818181799</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>45205</v>
       </c>
@@ -5659,7 +11819,7 @@
         <v>11.2222222222222</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>45206</v>
       </c>
@@ -5701,7 +11861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>45207</v>
       </c>
@@ -5729,7 +11889,7 @@
         <v>13.6086956521739</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>45208</v>
       </c>
@@ -5757,7 +11917,7 @@
         <v>12.714285714285699</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>45209</v>
       </c>
@@ -5785,7 +11945,7 @@
         <v>20.6666666666666</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>45210</v>
       </c>
@@ -5827,7 +11987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>45211</v>
       </c>
@@ -5869,7 +12029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>45212</v>
       </c>
@@ -5897,7 +12057,7 @@
         <v>18.9375</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>45213</v>
       </c>
@@ -5925,7 +12085,7 @@
         <v>18.1428571428571</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>45214</v>
       </c>
@@ -5953,7 +12113,7 @@
         <v>18.136363636363601</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>45215</v>
       </c>
@@ -5981,7 +12141,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>45216</v>
       </c>
@@ -6009,7 +12169,7 @@
         <v>17.727272727272702</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>45217</v>
       </c>
@@ -6037,7 +12197,7 @@
         <v>16.318181818181799</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>45218</v>
       </c>
@@ -6079,7 +12239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>45219</v>
       </c>
@@ -6107,7 +12267,7 @@
         <v>27.6666666666666</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>45220</v>
       </c>
@@ -6135,7 +12295,7 @@
         <v>15.9130434782608</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>45222</v>
       </c>
@@ -6163,7 +12323,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>45223</v>
       </c>
@@ -6205,7 +12365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>45224</v>
       </c>
@@ -6233,7 +12393,7 @@
         <v>13.619047619047601</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>45225</v>
       </c>
@@ -6275,7 +12435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>45226</v>
       </c>
@@ -6303,7 +12463,7 @@
         <v>10.1111111111111</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>45227</v>
       </c>
@@ -6317,7 +12477,7 @@
         <v>25.1538461538461</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>45228</v>
       </c>
@@ -6345,7 +12505,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>45229</v>
       </c>
@@ -6373,7 +12533,7 @@
         <v>13.8888888888888</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>45230</v>
       </c>
@@ -6415,7 +12575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>45231</v>
       </c>
@@ -6443,7 +12603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>45232</v>
       </c>
@@ -6471,7 +12631,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>45233</v>
       </c>
@@ -6499,7 +12659,7 @@
         <v>7.93333333333333</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>45234</v>
       </c>
@@ -6541,7 +12701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>45235</v>
       </c>
@@ -6583,7 +12743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>45236</v>
       </c>
@@ -6611,7 +12771,7 @@
         <v>12.785714285714199</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>45237</v>
       </c>
@@ -6625,7 +12785,7 @@
         <v>15.033898305084699</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>45238</v>
       </c>
@@ -6667,7 +12827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>45239</v>
       </c>
@@ -6709,7 +12869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>45240</v>
       </c>
@@ -6737,7 +12897,7 @@
         <v>14.9166666666666</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>45241</v>
       </c>
@@ -6779,7 +12939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>45242</v>
       </c>
@@ -6807,7 +12967,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>45243</v>
       </c>
@@ -6835,7 +12995,7 @@
         <v>15.3333333333333</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>45244</v>
       </c>
@@ -6877,7 +13037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>45245</v>
       </c>
@@ -6919,7 +13079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>45246</v>
       </c>
@@ -6947,7 +13107,7 @@
         <v>27.4545454545454</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>45247</v>
       </c>
@@ -6975,7 +13135,7 @@
         <v>12.769230769230701</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>45248</v>
       </c>
@@ -7017,7 +13177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>45249</v>
       </c>
@@ -7045,7 +13205,7 @@
         <v>5.9230769230769198</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>45250</v>
       </c>
@@ -7073,7 +13233,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>45251</v>
       </c>
@@ -7101,7 +13261,7 @@
         <v>11.133333333333301</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>45252</v>
       </c>
@@ -7143,7 +13303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>45253</v>
       </c>
@@ -7171,7 +13331,7 @@
         <v>8.5454545454545396</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>45254</v>
       </c>
@@ -7199,7 +13359,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>45255</v>
       </c>
@@ -7227,7 +13387,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>45256</v>
       </c>
@@ -7255,7 +13415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>45257</v>
       </c>
@@ -7283,7 +13443,7 @@
         <v>6.2307692307692299</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>45258</v>
       </c>
@@ -7325,7 +13485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>45259</v>
       </c>
@@ -7367,7 +13527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>45260</v>
       </c>
@@ -7395,7 +13555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>45261</v>
       </c>
@@ -7423,7 +13583,7 @@
         <v>24.538461538461501</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>45262</v>
       </c>
@@ -7465,7 +13625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>45263</v>
       </c>
@@ -7507,7 +13667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>45264</v>
       </c>
@@ -7535,7 +13695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>45265</v>
       </c>
@@ -7577,7 +13737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>45266</v>
       </c>
@@ -7605,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>45267</v>
       </c>
@@ -7633,7 +13793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>45268</v>
       </c>
@@ -7661,7 +13821,7 @@
         <v>8.71428571428571</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>45269</v>
       </c>
@@ -7689,7 +13849,7 @@
         <v>17.428571428571399</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>45270</v>
       </c>
@@ -7717,7 +13877,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>45271</v>
       </c>
@@ -7745,7 +13905,7 @@
         <v>11.4285714285714</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>45272</v>
       </c>
@@ -7787,7 +13947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>45273</v>
       </c>
@@ -7815,7 +13975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>45274</v>
       </c>
@@ -7843,7 +14003,7 @@
         <v>9.0769230769230695</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>45275</v>
       </c>
@@ -7885,7 +14045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>45276</v>
       </c>
@@ -7913,7 +14073,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>45277</v>
       </c>
@@ -7941,7 +14101,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>45278</v>
       </c>
@@ -7969,7 +14129,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>45279</v>
       </c>
@@ -7997,7 +14157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>45280</v>
       </c>
@@ -8039,7 +14199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>45281</v>
       </c>
@@ -8067,7 +14227,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>45282</v>
       </c>
@@ -8095,7 +14255,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>45283</v>
       </c>
@@ -8123,7 +14283,7 @@
         <v>12.2222222222222</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>45284</v>
       </c>
@@ -8151,7 +14311,7 @@
         <v>11.125</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>45285</v>
       </c>
@@ -8179,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>45286</v>
       </c>
@@ -8207,7 +14367,7 @@
         <v>14.4615384615384</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>45287</v>
       </c>
@@ -8235,7 +14395,7 @@
         <v>4.2307692307692299</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>45288</v>
       </c>
@@ -8277,7 +14437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>45289</v>
       </c>
@@ -8305,7 +14465,7 @@
         <v>11.285714285714199</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>45290</v>
       </c>
@@ -8347,7 +14507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>45291</v>
       </c>
@@ -8375,7 +14535,7 @@
         <v>7.125</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>45292</v>
       </c>
@@ -8417,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>45293</v>
       </c>
@@ -8445,7 +14605,7 @@
         <v>15.307692307692299</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>45294</v>
       </c>
@@ -8487,7 +14647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>45295</v>
       </c>
@@ -8515,7 +14675,7 @@
         <v>8.375</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>45296</v>
       </c>
@@ -8543,7 +14703,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>45297</v>
       </c>
@@ -8571,7 +14731,7 @@
         <v>14.9411764705882</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>45298</v>
       </c>
@@ -8613,7 +14773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>45299</v>
       </c>
@@ -8641,7 +14801,7 @@
         <v>14.1428571428571</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>45300</v>
       </c>
@@ -8683,7 +14843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>45301</v>
       </c>
@@ -8725,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>45302</v>
       </c>
@@ -8753,7 +14913,7 @@
         <v>13.6666666666666</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>45303</v>
       </c>
@@ -8781,7 +14941,7 @@
         <v>16.692307692307601</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>45304</v>
       </c>
@@ -8809,7 +14969,7 @@
         <v>9.8235294117646994</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>45305</v>
       </c>
@@ -8837,7 +14997,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>45306</v>
       </c>
@@ -8865,7 +15025,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>45307</v>
       </c>
@@ -8907,7 +15067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>45308</v>
       </c>
@@ -8949,7 +15109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>45309</v>
       </c>
@@ -8963,7 +15123,7 @@
         <v>13.2758620689655</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>45310</v>
       </c>
@@ -8991,7 +15151,7 @@
         <v>26.384615384615302</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>45311</v>
       </c>
@@ -9019,7 +15179,7 @@
         <v>2.9411764705882302</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>45312</v>
       </c>
@@ -9047,7 +15207,7 @@
         <v>3.5714285714285698</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>45313</v>
       </c>
@@ -9075,7 +15235,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>45314</v>
       </c>
@@ -9103,7 +15263,7 @@
         <v>8.0909090909090899</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>45315</v>
       </c>
@@ -9145,7 +15305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>45316</v>
       </c>
@@ -9173,7 +15333,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>45317</v>
       </c>
@@ -9201,7 +15361,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>45318</v>
       </c>
@@ -9243,7 +15403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>45319</v>
       </c>
@@ -9271,7 +15431,7 @@
         <v>1.4666666666666599</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>45320</v>
       </c>
@@ -9299,7 +15459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>45321</v>
       </c>
@@ -9341,7 +15501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>45322</v>
       </c>
@@ -9383,7 +15543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>45323</v>
       </c>
@@ -9425,7 +15585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>45324</v>
       </c>
@@ -9453,7 +15613,7 @@
         <v>7.7692307692307603</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>45325</v>
       </c>
@@ -9481,7 +15641,7 @@
         <v>4.7368421052631504</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>45326</v>
       </c>
@@ -9509,7 +15669,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>45327</v>
       </c>
@@ -9537,7 +15697,7 @@
         <v>13.714285714285699</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>45328</v>
       </c>
@@ -9579,7 +15739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>45329</v>
       </c>
@@ -9621,7 +15781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>45330</v>
       </c>
@@ -9663,7 +15823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>45331</v>
       </c>
@@ -9705,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>45332</v>
       </c>
@@ -9733,7 +15893,7 @@
         <v>13.625</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>45333</v>
       </c>
@@ -9761,7 +15921,7 @@
         <v>7.4666666666666597</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>45334</v>
       </c>
@@ -9803,7 +15963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>45336</v>
       </c>
@@ -9845,7 +16005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>45337</v>
       </c>
@@ -9873,7 +16033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>45338</v>
       </c>
@@ -9901,7 +16061,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>45339</v>
       </c>
@@ -9929,7 +16089,7 @@
         <v>8.0526315789473593</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>45340</v>
       </c>
@@ -9957,7 +16117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>45341</v>
       </c>
@@ -9985,7 +16145,7 @@
         <v>2.7333333333333298</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>45342</v>
       </c>
@@ -10027,7 +16187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>45343</v>
       </c>
@@ -10069,7 +16229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>45344</v>
       </c>
@@ -10097,7 +16257,7 @@
         <v>9.5833333333333304</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>45345</v>
       </c>
@@ -10125,7 +16285,7 @@
         <v>8.3333333333333304</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>45346</v>
       </c>
@@ -10167,7 +16327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>45347</v>
       </c>
@@ -10195,7 +16355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>45348</v>
       </c>
@@ -10223,7 +16383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>45349</v>
       </c>
@@ -10265,7 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>45350</v>
       </c>
@@ -10307,7 +16467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>45351</v>
       </c>
@@ -10335,7 +16495,7 @@
         <v>9.8461538461538396</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>45352</v>
       </c>
@@ -10363,7 +16523,7 @@
         <v>19.923076923076898</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>45353</v>
       </c>
@@ -10391,7 +16551,7 @@
         <v>15.588235294117601</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>45354</v>
       </c>
@@ -10433,7 +16593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>45355</v>
       </c>
@@ -10461,7 +16621,7 @@
         <v>19.714285714285701</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>45356</v>
       </c>
@@ -10503,7 +16663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>45357</v>
       </c>
@@ -10531,7 +16691,7 @@
         <v>18.909090909090899</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>45358</v>
       </c>
@@ -10559,7 +16719,7 @@
         <v>8.3636363636363598</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>45359</v>
       </c>
@@ -10587,7 +16747,7 @@
         <v>12.1428571428571</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>45360</v>
       </c>
@@ -10615,7 +16775,7 @@
         <v>17.470588235294102</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>45361</v>
       </c>
@@ -10643,7 +16803,7 @@
         <v>6.86666666666666</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>45362</v>
       </c>
@@ -10671,7 +16831,7 @@
         <v>23.375</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>45363</v>
       </c>
@@ -10713,7 +16873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>45364</v>
       </c>
@@ -10755,7 +16915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>45365</v>
       </c>
@@ -10783,7 +16943,7 @@
         <v>20.090909090909001</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>45366</v>
       </c>
@@ -10811,7 +16971,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>45367</v>
       </c>
@@ -10839,7 +16999,7 @@
         <v>13.5555555555555</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>45368</v>
       </c>
@@ -10867,7 +17027,7 @@
         <v>6.9285714285714199</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>45369</v>
       </c>
@@ -10895,7 +17055,7 @@
         <v>15.9375</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>45370</v>
       </c>
@@ -10937,7 +17097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>45371</v>
       </c>
@@ -10979,7 +17139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>45372</v>
       </c>
@@ -11007,7 +17167,7 @@
         <v>19.272727272727199</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>45373</v>
       </c>
@@ -11049,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>45374</v>
       </c>
@@ -11091,7 +17251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>45375</v>
       </c>
@@ -11119,7 +17279,7 @@
         <v>5.5714285714285703</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>45376</v>
       </c>
@@ -11161,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>45377</v>
       </c>
@@ -11203,7 +17363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>45378</v>
       </c>
@@ -11245,7 +17405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>45379</v>
       </c>
@@ -11273,7 +17433,7 @@
         <v>16.5625</v>
       </c>
     </row>
-    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>45380</v>
       </c>
@@ -11301,7 +17461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>45381</v>
       </c>
@@ -11329,7 +17489,7 @@
         <v>14.105263157894701</v>
       </c>
     </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>45382</v>
       </c>
@@ -11357,7 +17517,7 @@
         <v>18.6666666666666</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>45383</v>
       </c>
@@ -11385,7 +17545,7 @@
         <v>11.066666666666601</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>45384</v>
       </c>
@@ -11413,7 +17573,7 @@
         <v>16.5263157894736</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>45385</v>
       </c>
@@ -11455,7 +17615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>45386</v>
       </c>
@@ -11483,7 +17643,7 @@
         <v>18.2631578947368</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>45387</v>
       </c>
@@ -11511,7 +17671,7 @@
         <v>15.647058823529401</v>
       </c>
     </row>
-    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>45388</v>
       </c>
@@ -11539,7 +17699,7 @@
         <v>12.8823529411764</v>
       </c>
     </row>
-    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>45389</v>
       </c>
@@ -11581,7 +17741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>45390</v>
       </c>
@@ -11623,7 +17783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>45391</v>
       </c>
@@ -11651,7 +17811,7 @@
         <v>16.3333333333333</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>45392</v>
       </c>
@@ -11679,7 +17839,7 @@
         <v>12.5263157894736</v>
       </c>
     </row>
-    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>45393</v>
       </c>
@@ -11707,7 +17867,7 @@
         <v>19.045454545454501</v>
       </c>
     </row>
-    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>45394</v>
       </c>
@@ -11735,7 +17895,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>45395</v>
       </c>
@@ -11763,7 +17923,7 @@
         <v>10.538461538461499</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>45396</v>
       </c>
@@ -11791,7 +17951,7 @@
         <v>7.2105263157894699</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>45397</v>
       </c>
@@ -11819,7 +17979,7 @@
         <v>16.352941176470502</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>45398</v>
       </c>
@@ -11847,7 +18007,7 @@
         <v>6.5333333333333297</v>
       </c>
     </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>45399</v>
       </c>
@@ -11889,7 +18049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>45400</v>
       </c>
@@ -11917,7 +18077,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>45401</v>
       </c>
@@ -11945,7 +18105,7 @@
         <v>10.125</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>45402</v>
       </c>
@@ -11973,7 +18133,7 @@
         <v>11.9411764705882</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>45403</v>
       </c>
@@ -12001,7 +18161,7 @@
         <v>14.789473684210501</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>45404</v>
       </c>
@@ -12029,7 +18189,7 @@
         <v>15.4705882352941</v>
       </c>
     </row>
-    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>45405</v>
       </c>
@@ -12057,7 +18217,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>45406</v>
       </c>
@@ -12085,7 +18245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>45407</v>
       </c>
@@ -12127,7 +18287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>45408</v>
       </c>
@@ -12155,7 +18315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>45409</v>
       </c>
@@ -12183,7 +18343,7 @@
         <v>15.157894736842101</v>
       </c>
     </row>
-    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>45410</v>
       </c>
@@ -12211,7 +18371,7 @@
         <v>11.8421052631578</v>
       </c>
     </row>
-    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>45411</v>
       </c>
@@ -12239,7 +18399,7 @@
         <v>10.2307692307692</v>
       </c>
     </row>
-    <row r="811" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>45412</v>
       </c>
@@ -12268,14 +18428,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D812" xr:uid="{05F98530-EA72-4FE3-98ED-08C0C795F1C1}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Night hour departures"/>
-        <filter val="Shoulder hour flights"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D812" xr:uid="{05F98530-EA72-4FE3-98ED-08C0C795F1C1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>